--- a/Private/Nhân/2. Artifact and Deliverable/Requirement/PM_Milestone_Ver1.0.xlsx
+++ b/Private/Nhân/2. Artifact and Deliverable/Requirement/PM_Milestone_Ver1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Private\Nhân\2. Artifact and Deliverable\Requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone Chart" sheetId="1" r:id="rId1"/>
@@ -224,8 +224,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.3333333333333297E-3"/>
-                  <c:y val="-0.19319808982210554"/>
+                  <c:x val="2.7277039100389263E-3"/>
+                  <c:y val="-0.15703994459540671"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -248,8 +248,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7591534567413902E-3"/>
-                  <c:y val="-0.16495536100889885"/>
+                  <c:x val="-1.7591763884088085E-3"/>
+                  <c:y val="-0.14687602984996001"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -296,8 +296,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4072119613016743E-2"/>
-                  <c:y val="-0.19180044286662304"/>
+                  <c:x val="4.3462672533152204E-3"/>
+                  <c:y val="-0.19179996834972285"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -524,9 +524,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-EDE1-4528-9CF1-F183E3E12EB6}"/>
                 </c:ext>
@@ -559,7 +557,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -627,22 +624,22 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-10</c:v>
@@ -1322,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,8 +1387,8 @@
         <v>Trainning code</v>
       </c>
       <c r="G4" s="3">
-        <f>IF(F4&lt;&gt;"",-10,"")</f>
-        <v>-10</v>
+        <f>IF(F4&lt;&gt;"",-7,"")</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1410,8 +1407,8 @@
         <v>Start Function: Account management</v>
       </c>
       <c r="G5" s="3">
-        <f>IF(F5&lt;&gt;"",10,"")</f>
-        <v>10</v>
+        <f>IF(F5&lt;&gt;"",15,"")</f>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1430,8 +1427,8 @@
         <v>End Function: Account management</v>
       </c>
       <c r="G6" s="3">
-        <f>IF(F6&lt;&gt;"",-10,"")</f>
-        <v>-10</v>
+        <f>IF(F6&lt;&gt;"",-9,"")</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1450,8 +1447,8 @@
         <v>Start Function: Project management</v>
       </c>
       <c r="G7" s="3">
-        <f>IF(F7&lt;&gt;"",10,"")</f>
-        <v>10</v>
+        <f>IF(F7&lt;&gt;"",12,"")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1470,8 +1467,8 @@
         <v>End Function: Project management</v>
       </c>
       <c r="G8" s="3">
-        <f>IF(F8&lt;&gt;"",-10,"")</f>
-        <v>-10</v>
+        <f>IF(F8&lt;&gt;"",-15,"")</f>
+        <v>-15</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1490,8 +1487,8 @@
         <v>EOMP#1</v>
       </c>
       <c r="G9" s="3">
-        <f>IF(F9&lt;&gt;"",10,"")</f>
-        <v>10</v>
+        <f>IF(F9&lt;&gt;"",15,"")</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
